--- a/Dokumentation/Testprotokoll.xlsx
+++ b/Dokumentation/Testprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TDTool\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E7F6E04A-445D-4E51-846D-342B88A18366}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B4DEF2-2FD9-46CE-92FC-A13BB766BB0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -143,7 +143,34 @@
     <t>Klickt man auf den Button wird man ausgelogt.</t>
   </si>
   <si>
-    <t>Man wird durch Klick ausgelogt</t>
+    <t>Chatansicht</t>
+  </si>
+  <si>
+    <t>andere User sehen die Nachrichten der anderen User nicht.</t>
+  </si>
+  <si>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t>Passwörter werden in der Datenbank nicht gehashed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Man wird durch Klick ausgelogt.</t>
+  </si>
+  <si>
+    <t>alle User sehen die Nachricht.</t>
+  </si>
+  <si>
+    <t>Passwörter werden gehashed abgesperichert.</t>
+  </si>
+  <si>
+    <t>User deren die Nachricht nicht gehören sehen die Nachricht nicht.</t>
+  </si>
+  <si>
+    <t>Passwörter werden in der Datenbank nicht gehashed abgespeichert.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +356,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF680005"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1934"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF680005"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1934"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF680005"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1934"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF005800"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF51CF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF680005"/>
@@ -357,26 +424,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF680005"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF1934"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF005800"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF51CF69"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1177,22 +1224,22 @@
   </sheetPr>
   <dimension ref="A1:K743"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="35.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="35.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -1200,7 +1247,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -1213,7 +1260,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -1226,7 +1273,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -1239,7 +1286,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20"/>
@@ -1252,7 +1299,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1314,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -1300,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="7">
         <v>1</v>
@@ -1331,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="7">
         <v>2</v>
@@ -1360,7 +1407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="7">
         <v>3</v>
@@ -1391,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="7">
         <v>4</v>
@@ -1422,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="7">
         <v>5</v>
@@ -1441,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I12" s="9">
         <v>43315</v>
@@ -1453,33 +1500,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="9">
+        <v>43315</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9">
+        <v>43315</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1492,7 +1573,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1505,7 +1586,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1518,7 +1599,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1530,7 +1611,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1542,7 +1623,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1554,7 +1635,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1566,7 +1647,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1578,7 +1659,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1590,7 +1671,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1602,7 +1683,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1614,7 +1695,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1626,7 +1707,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1638,7 +1719,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1650,7 +1731,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1662,7 +1743,7 @@
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1674,7 +1755,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1686,7 +1767,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1698,7 +1779,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1710,7 +1791,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1722,7 +1803,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1734,7 +1815,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1746,7 +1827,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1758,7 +1839,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1770,7 +1851,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1782,7 +1863,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1794,7 +1875,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1806,7 +1887,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1818,7 +1899,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1830,7 +1911,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1842,7 +1923,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1854,7 +1935,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1866,7 +1947,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1878,7 +1959,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1890,7 +1971,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1902,7 +1983,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1914,7 +1995,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1926,7 +2007,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1938,7 +2019,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1950,7 +2031,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -1962,7 +2043,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -1974,7 +2055,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -1986,7 +2067,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -1998,7 +2079,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2010,7 +2091,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2022,7 +2103,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2034,7 +2115,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2046,7 +2127,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2058,7 +2139,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2070,7 +2151,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2082,7 +2163,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2094,7 +2175,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -2106,7 +2187,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2118,7 +2199,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2130,7 +2211,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2142,7 +2223,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2154,7 +2235,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -2166,7 +2247,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2178,7 +2259,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2190,7 +2271,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2202,7 +2283,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2214,7 +2295,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2226,7 +2307,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2238,7 +2319,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2250,7 +2331,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2262,7 +2343,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2274,7 +2355,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2286,7 +2367,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -2298,7 +2379,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2310,7 +2391,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2322,7 +2403,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2334,7 +2415,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -2346,7 +2427,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2358,7 +2439,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -2370,7 +2451,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -2382,7 +2463,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -2394,7 +2475,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -2406,7 +2487,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -2418,7 +2499,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -2430,7 +2511,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -2442,7 +2523,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2454,7 +2535,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2466,7 +2547,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -2478,7 +2559,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2490,7 +2571,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2502,7 +2583,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2514,7 +2595,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2526,7 +2607,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2538,7 +2619,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2550,7 +2631,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2562,7 +2643,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -2574,7 +2655,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2586,7 +2667,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -2598,7 +2679,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -2610,7 +2691,7 @@
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -2622,7 +2703,7 @@
       <c r="J109" s="14"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -2634,7 +2715,7 @@
       <c r="J110" s="14"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -2646,7 +2727,7 @@
       <c r="J111" s="14"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -2658,7 +2739,7 @@
       <c r="J112" s="14"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -2670,7 +2751,7 @@
       <c r="J113" s="14"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -2682,7 +2763,7 @@
       <c r="J114" s="14"/>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -2694,7 +2775,7 @@
       <c r="J115" s="14"/>
       <c r="K115" s="15"/>
     </row>
-    <row r="116" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -2706,7 +2787,7 @@
       <c r="J116" s="14"/>
       <c r="K116" s="15"/>
     </row>
-    <row r="117" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -2718,7 +2799,7 @@
       <c r="J117" s="14"/>
       <c r="K117" s="15"/>
     </row>
-    <row r="118" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -2730,7 +2811,7 @@
       <c r="J118" s="14"/>
       <c r="K118" s="15"/>
     </row>
-    <row r="119" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -2742,7 +2823,7 @@
       <c r="J119" s="14"/>
       <c r="K119" s="15"/>
     </row>
-    <row r="120" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -2754,7 +2835,7 @@
       <c r="J120" s="14"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -2766,7 +2847,7 @@
       <c r="J121" s="14"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -2778,7 +2859,7 @@
       <c r="J122" s="14"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -2790,7 +2871,7 @@
       <c r="J123" s="14"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -2802,7 +2883,7 @@
       <c r="J124" s="14"/>
       <c r="K124" s="15"/>
     </row>
-    <row r="125" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -2814,7 +2895,7 @@
       <c r="J125" s="14"/>
       <c r="K125" s="15"/>
     </row>
-    <row r="126" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -2826,7 +2907,7 @@
       <c r="J126" s="14"/>
       <c r="K126" s="15"/>
     </row>
-    <row r="127" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -2838,7 +2919,7 @@
       <c r="J127" s="14"/>
       <c r="K127" s="15"/>
     </row>
-    <row r="128" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -2850,7 +2931,7 @@
       <c r="J128" s="14"/>
       <c r="K128" s="15"/>
     </row>
-    <row r="129" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -2862,7 +2943,7 @@
       <c r="J129" s="14"/>
       <c r="K129" s="15"/>
     </row>
-    <row r="130" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -2874,7 +2955,7 @@
       <c r="J130" s="14"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -2886,7 +2967,7 @@
       <c r="J131" s="14"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -2898,7 +2979,7 @@
       <c r="J132" s="14"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -2910,7 +2991,7 @@
       <c r="J133" s="14"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -2922,7 +3003,7 @@
       <c r="J134" s="14"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -2934,7 +3015,7 @@
       <c r="J135" s="14"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -2946,7 +3027,7 @@
       <c r="J136" s="14"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -2958,7 +3039,7 @@
       <c r="J137" s="14"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -2970,7 +3051,7 @@
       <c r="J138" s="14"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -2982,7 +3063,7 @@
       <c r="J139" s="14"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -2994,7 +3075,7 @@
       <c r="J140" s="14"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -3006,7 +3087,7 @@
       <c r="J141" s="14"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -3018,7 +3099,7 @@
       <c r="J142" s="14"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -3030,7 +3111,7 @@
       <c r="J143" s="14"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -3042,7 +3123,7 @@
       <c r="J144" s="14"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -3054,7 +3135,7 @@
       <c r="J145" s="14"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -3066,7 +3147,7 @@
       <c r="J146" s="14"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -3078,7 +3159,7 @@
       <c r="J147" s="14"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -3090,7 +3171,7 @@
       <c r="J148" s="14"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -3102,7 +3183,7 @@
       <c r="J149" s="14"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -3114,7 +3195,7 @@
       <c r="J150" s="14"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -3126,7 +3207,7 @@
       <c r="J151" s="14"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -3138,7 +3219,7 @@
       <c r="J152" s="14"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -3150,7 +3231,7 @@
       <c r="J153" s="14"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -3162,7 +3243,7 @@
       <c r="J154" s="14"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -3174,7 +3255,7 @@
       <c r="J155" s="14"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -3186,7 +3267,7 @@
       <c r="J156" s="14"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -3198,7 +3279,7 @@
       <c r="J157" s="14"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -3210,7 +3291,7 @@
       <c r="J158" s="14"/>
       <c r="K158" s="15"/>
     </row>
-    <row r="159" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -3222,7 +3303,7 @@
       <c r="J159" s="14"/>
       <c r="K159" s="15"/>
     </row>
-    <row r="160" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -3234,7 +3315,7 @@
       <c r="J160" s="14"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -3246,7 +3327,7 @@
       <c r="J161" s="14"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -3258,7 +3339,7 @@
       <c r="J162" s="14"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -3270,7 +3351,7 @@
       <c r="J163" s="14"/>
       <c r="K163" s="15"/>
     </row>
-    <row r="164" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -3282,7 +3363,7 @@
       <c r="J164" s="14"/>
       <c r="K164" s="15"/>
     </row>
-    <row r="165" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -3294,7 +3375,7 @@
       <c r="J165" s="14"/>
       <c r="K165" s="15"/>
     </row>
-    <row r="166" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -3306,7 +3387,7 @@
       <c r="J166" s="14"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -3318,7 +3399,7 @@
       <c r="J167" s="14"/>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -3330,7 +3411,7 @@
       <c r="J168" s="14"/>
       <c r="K168" s="15"/>
     </row>
-    <row r="169" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -3342,7 +3423,7 @@
       <c r="J169" s="14"/>
       <c r="K169" s="15"/>
     </row>
-    <row r="170" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -3354,7 +3435,7 @@
       <c r="J170" s="14"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -3366,7 +3447,7 @@
       <c r="J171" s="14"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -3378,7 +3459,7 @@
       <c r="J172" s="14"/>
       <c r="K172" s="15"/>
     </row>
-    <row r="173" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -3390,7 +3471,7 @@
       <c r="J173" s="14"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -3402,7 +3483,7 @@
       <c r="J174" s="14"/>
       <c r="K174" s="15"/>
     </row>
-    <row r="175" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -3414,7 +3495,7 @@
       <c r="J175" s="14"/>
       <c r="K175" s="15"/>
     </row>
-    <row r="176" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -3426,7 +3507,7 @@
       <c r="J176" s="14"/>
       <c r="K176" s="15"/>
     </row>
-    <row r="177" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -3438,7 +3519,7 @@
       <c r="J177" s="14"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -3450,7 +3531,7 @@
       <c r="J178" s="14"/>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -3462,7 +3543,7 @@
       <c r="J179" s="14"/>
       <c r="K179" s="15"/>
     </row>
-    <row r="180" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -3474,7 +3555,7 @@
       <c r="J180" s="14"/>
       <c r="K180" s="15"/>
     </row>
-    <row r="181" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -3486,7 +3567,7 @@
       <c r="J181" s="14"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -3498,7 +3579,7 @@
       <c r="J182" s="14"/>
       <c r="K182" s="15"/>
     </row>
-    <row r="183" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
@@ -3510,7 +3591,7 @@
       <c r="J183" s="14"/>
       <c r="K183" s="15"/>
     </row>
-    <row r="184" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
@@ -3522,7 +3603,7 @@
       <c r="J184" s="14"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -3534,7 +3615,7 @@
       <c r="J185" s="14"/>
       <c r="K185" s="15"/>
     </row>
-    <row r="186" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
@@ -3546,7 +3627,7 @@
       <c r="J186" s="14"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -3558,7 +3639,7 @@
       <c r="J187" s="14"/>
       <c r="K187" s="15"/>
     </row>
-    <row r="188" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -3570,7 +3651,7 @@
       <c r="J188" s="14"/>
       <c r="K188" s="15"/>
     </row>
-    <row r="189" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -3582,7 +3663,7 @@
       <c r="J189" s="14"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -3594,7 +3675,7 @@
       <c r="J190" s="14"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -3606,7 +3687,7 @@
       <c r="J191" s="14"/>
       <c r="K191" s="15"/>
     </row>
-    <row r="192" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -3618,7 +3699,7 @@
       <c r="J192" s="14"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="7"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -3630,7 +3711,7 @@
       <c r="J193" s="14"/>
       <c r="K193" s="15"/>
     </row>
-    <row r="194" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="7"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -3642,7 +3723,7 @@
       <c r="J194" s="14"/>
       <c r="K194" s="15"/>
     </row>
-    <row r="195" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -3654,7 +3735,7 @@
       <c r="J195" s="14"/>
       <c r="K195" s="15"/>
     </row>
-    <row r="196" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
@@ -3666,7 +3747,7 @@
       <c r="J196" s="14"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -3678,7 +3759,7 @@
       <c r="J197" s="14"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -3690,7 +3771,7 @@
       <c r="J198" s="14"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
@@ -3702,7 +3783,7 @@
       <c r="J199" s="14"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -3714,7 +3795,7 @@
       <c r="J200" s="14"/>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -3726,7 +3807,7 @@
       <c r="J201" s="14"/>
       <c r="K201" s="15"/>
     </row>
-    <row r="202" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="7"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -3738,7 +3819,7 @@
       <c r="J202" s="14"/>
       <c r="K202" s="15"/>
     </row>
-    <row r="203" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -3750,7 +3831,7 @@
       <c r="J203" s="14"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -3762,7 +3843,7 @@
       <c r="J204" s="14"/>
       <c r="K204" s="15"/>
     </row>
-    <row r="205" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -3774,7 +3855,7 @@
       <c r="J205" s="14"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -3786,7 +3867,7 @@
       <c r="J206" s="14"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -3798,7 +3879,7 @@
       <c r="J207" s="14"/>
       <c r="K207" s="15"/>
     </row>
-    <row r="208" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -3810,7 +3891,7 @@
       <c r="J208" s="14"/>
       <c r="K208" s="15"/>
     </row>
-    <row r="209" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="7"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -3822,7 +3903,7 @@
       <c r="J209" s="14"/>
       <c r="K209" s="15"/>
     </row>
-    <row r="210" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="7"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -3834,7 +3915,7 @@
       <c r="J210" s="14"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="7"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -3846,7 +3927,7 @@
       <c r="J211" s="14"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -3858,7 +3939,7 @@
       <c r="J212" s="14"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -3870,7 +3951,7 @@
       <c r="J213" s="14"/>
       <c r="K213" s="15"/>
     </row>
-    <row r="214" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -3882,7 +3963,7 @@
       <c r="J214" s="14"/>
       <c r="K214" s="15"/>
     </row>
-    <row r="215" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
@@ -3894,7 +3975,7 @@
       <c r="J215" s="14"/>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
@@ -3906,7 +3987,7 @@
       <c r="J216" s="14"/>
       <c r="K216" s="15"/>
     </row>
-    <row r="217" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="7"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
@@ -3918,7 +3999,7 @@
       <c r="J217" s="14"/>
       <c r="K217" s="15"/>
     </row>
-    <row r="218" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="7"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
@@ -3930,7 +4011,7 @@
       <c r="J218" s="14"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="7"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -3942,7 +4023,7 @@
       <c r="J219" s="14"/>
       <c r="K219" s="15"/>
     </row>
-    <row r="220" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -3954,7 +4035,7 @@
       <c r="J220" s="14"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
@@ -3966,7 +4047,7 @@
       <c r="J221" s="14"/>
       <c r="K221" s="15"/>
     </row>
-    <row r="222" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -3978,7 +4059,7 @@
       <c r="J222" s="14"/>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -3990,7 +4071,7 @@
       <c r="J223" s="14"/>
       <c r="K223" s="15"/>
     </row>
-    <row r="224" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="7"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
@@ -4002,7 +4083,7 @@
       <c r="J224" s="14"/>
       <c r="K224" s="15"/>
     </row>
-    <row r="225" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="7"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
@@ -4014,7 +4095,7 @@
       <c r="J225" s="14"/>
       <c r="K225" s="15"/>
     </row>
-    <row r="226" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="7"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
@@ -4026,7 +4107,7 @@
       <c r="J226" s="14"/>
       <c r="K226" s="15"/>
     </row>
-    <row r="227" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="7"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -4038,7 +4119,7 @@
       <c r="J227" s="14"/>
       <c r="K227" s="15"/>
     </row>
-    <row r="228" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -4050,7 +4131,7 @@
       <c r="J228" s="14"/>
       <c r="K228" s="15"/>
     </row>
-    <row r="229" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -4062,7 +4143,7 @@
       <c r="J229" s="14"/>
       <c r="K229" s="15"/>
     </row>
-    <row r="230" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -4074,7 +4155,7 @@
       <c r="J230" s="14"/>
       <c r="K230" s="15"/>
     </row>
-    <row r="231" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -4086,7 +4167,7 @@
       <c r="J231" s="14"/>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="7"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
@@ -4098,7 +4179,7 @@
       <c r="J232" s="14"/>
       <c r="K232" s="15"/>
     </row>
-    <row r="233" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -4110,7 +4191,7 @@
       <c r="J233" s="14"/>
       <c r="K233" s="15"/>
     </row>
-    <row r="234" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="7"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
@@ -4122,7 +4203,7 @@
       <c r="J234" s="14"/>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="7"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
@@ -4134,7 +4215,7 @@
       <c r="J235" s="14"/>
       <c r="K235" s="15"/>
     </row>
-    <row r="236" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
@@ -4146,7 +4227,7 @@
       <c r="J236" s="14"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
@@ -4158,7 +4239,7 @@
       <c r="J237" s="14"/>
       <c r="K237" s="15"/>
     </row>
-    <row r="238" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
@@ -4170,7 +4251,7 @@
       <c r="J238" s="14"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -4182,7 +4263,7 @@
       <c r="J239" s="14"/>
       <c r="K239" s="15"/>
     </row>
-    <row r="240" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="7"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -4194,7 +4275,7 @@
       <c r="J240" s="14"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="7"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -4206,7 +4287,7 @@
       <c r="J241" s="14"/>
       <c r="K241" s="15"/>
     </row>
-    <row r="242" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="7"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
@@ -4218,7 +4299,7 @@
       <c r="J242" s="14"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="7"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
@@ -4230,7 +4311,7 @@
       <c r="J243" s="14"/>
       <c r="K243" s="15"/>
     </row>
-    <row r="244" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -4242,7 +4323,7 @@
       <c r="J244" s="14"/>
       <c r="K244" s="15"/>
     </row>
-    <row r="245" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -4254,7 +4335,7 @@
       <c r="J245" s="14"/>
       <c r="K245" s="15"/>
     </row>
-    <row r="246" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
@@ -4266,7 +4347,7 @@
       <c r="J246" s="14"/>
       <c r="K246" s="15"/>
     </row>
-    <row r="247" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
@@ -4278,7 +4359,7 @@
       <c r="J247" s="14"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="7"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
@@ -4290,7 +4371,7 @@
       <c r="J248" s="14"/>
       <c r="K248" s="15"/>
     </row>
-    <row r="249" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="7"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -4302,7 +4383,7 @@
       <c r="J249" s="14"/>
       <c r="K249" s="15"/>
     </row>
-    <row r="250" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="7"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -4314,7 +4395,7 @@
       <c r="J250" s="14"/>
       <c r="K250" s="15"/>
     </row>
-    <row r="251" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="7"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -4326,7 +4407,7 @@
       <c r="J251" s="14"/>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="7"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
@@ -4338,7 +4419,7 @@
       <c r="J252" s="14"/>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="7"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
@@ -4350,7 +4431,7 @@
       <c r="J253" s="14"/>
       <c r="K253" s="15"/>
     </row>
-    <row r="254" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="7"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
@@ -4362,7 +4443,7 @@
       <c r="J254" s="14"/>
       <c r="K254" s="15"/>
     </row>
-    <row r="255" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="7"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
@@ -4374,7 +4455,7 @@
       <c r="J255" s="14"/>
       <c r="K255" s="15"/>
     </row>
-    <row r="256" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="7"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
@@ -4386,7 +4467,7 @@
       <c r="J256" s="14"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="7"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
@@ -4398,7 +4479,7 @@
       <c r="J257" s="14"/>
       <c r="K257" s="15"/>
     </row>
-    <row r="258" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
@@ -4410,7 +4491,7 @@
       <c r="J258" s="14"/>
       <c r="K258" s="15"/>
     </row>
-    <row r="259" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -4422,7 +4503,7 @@
       <c r="J259" s="14"/>
       <c r="K259" s="15"/>
     </row>
-    <row r="260" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -4434,7 +4515,7 @@
       <c r="J260" s="14"/>
       <c r="K260" s="15"/>
     </row>
-    <row r="261" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -4446,7 +4527,7 @@
       <c r="J261" s="14"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -4458,7 +4539,7 @@
       <c r="J262" s="14"/>
       <c r="K262" s="15"/>
     </row>
-    <row r="263" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
@@ -4470,7 +4551,7 @@
       <c r="J263" s="14"/>
       <c r="K263" s="15"/>
     </row>
-    <row r="264" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
@@ -4482,7 +4563,7 @@
       <c r="J264" s="14"/>
       <c r="K264" s="15"/>
     </row>
-    <row r="265" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
@@ -4494,7 +4575,7 @@
       <c r="J265" s="14"/>
       <c r="K265" s="15"/>
     </row>
-    <row r="266" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
@@ -4506,7 +4587,7 @@
       <c r="J266" s="14"/>
       <c r="K266" s="15"/>
     </row>
-    <row r="267" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
@@ -4518,7 +4599,7 @@
       <c r="J267" s="14"/>
       <c r="K267" s="15"/>
     </row>
-    <row r="268" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="7"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
@@ -4530,7 +4611,7 @@
       <c r="J268" s="14"/>
       <c r="K268" s="15"/>
     </row>
-    <row r="269" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="7"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -4542,7 +4623,7 @@
       <c r="J269" s="14"/>
       <c r="K269" s="15"/>
     </row>
-    <row r="270" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="7"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -4554,7 +4635,7 @@
       <c r="J270" s="14"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="7"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
@@ -4566,7 +4647,7 @@
       <c r="J271" s="14"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="7"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
@@ -4578,7 +4659,7 @@
       <c r="J272" s="14"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
@@ -4590,7 +4671,7 @@
       <c r="J273" s="14"/>
       <c r="K273" s="15"/>
     </row>
-    <row r="274" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
@@ -4602,7 +4683,7 @@
       <c r="J274" s="14"/>
       <c r="K274" s="15"/>
     </row>
-    <row r="275" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="7"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
@@ -4614,7 +4695,7 @@
       <c r="J275" s="14"/>
       <c r="K275" s="15"/>
     </row>
-    <row r="276" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="7"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -4626,7 +4707,7 @@
       <c r="J276" s="14"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="7"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
@@ -4638,7 +4719,7 @@
       <c r="J277" s="14"/>
       <c r="K277" s="15"/>
     </row>
-    <row r="278" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="7"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -4650,7 +4731,7 @@
       <c r="J278" s="14"/>
       <c r="K278" s="15"/>
     </row>
-    <row r="279" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="7"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -4662,7 +4743,7 @@
       <c r="J279" s="14"/>
       <c r="K279" s="15"/>
     </row>
-    <row r="280" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -4674,7 +4755,7 @@
       <c r="J280" s="14"/>
       <c r="K280" s="15"/>
     </row>
-    <row r="281" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="7"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -4686,7 +4767,7 @@
       <c r="J281" s="14"/>
       <c r="K281" s="15"/>
     </row>
-    <row r="282" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="7"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -4698,7 +4779,7 @@
       <c r="J282" s="14"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="7"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -4710,7 +4791,7 @@
       <c r="J283" s="14"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="7"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
@@ -4722,7 +4803,7 @@
       <c r="J284" s="14"/>
       <c r="K284" s="15"/>
     </row>
-    <row r="285" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="7"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -4734,7 +4815,7 @@
       <c r="J285" s="14"/>
       <c r="K285" s="15"/>
     </row>
-    <row r="286" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="7"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
@@ -4746,7 +4827,7 @@
       <c r="J286" s="14"/>
       <c r="K286" s="15"/>
     </row>
-    <row r="287" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -4758,7 +4839,7 @@
       <c r="J287" s="14"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="7"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -4770,7 +4851,7 @@
       <c r="J288" s="14"/>
       <c r="K288" s="15"/>
     </row>
-    <row r="289" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="7"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -4782,7 +4863,7 @@
       <c r="J289" s="14"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="7"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
@@ -4794,7 +4875,7 @@
       <c r="J290" s="14"/>
       <c r="K290" s="15"/>
     </row>
-    <row r="291" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="7"/>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -4806,7 +4887,7 @@
       <c r="J291" s="14"/>
       <c r="K291" s="15"/>
     </row>
-    <row r="292" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="7"/>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
@@ -4818,7 +4899,7 @@
       <c r="J292" s="14"/>
       <c r="K292" s="15"/>
     </row>
-    <row r="293" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="7"/>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
@@ -4830,7 +4911,7 @@
       <c r="J293" s="14"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="7"/>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
@@ -4842,7 +4923,7 @@
       <c r="J294" s="14"/>
       <c r="K294" s="15"/>
     </row>
-    <row r="295" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="7"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
@@ -4854,7 +4935,7 @@
       <c r="J295" s="14"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
@@ -4866,7 +4947,7 @@
       <c r="J296" s="14"/>
       <c r="K296" s="15"/>
     </row>
-    <row r="297" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="7"/>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -4878,7 +4959,7 @@
       <c r="J297" s="14"/>
       <c r="K297" s="15"/>
     </row>
-    <row r="298" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="7"/>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
@@ -4890,7 +4971,7 @@
       <c r="J298" s="14"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="7"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
@@ -4902,7 +4983,7 @@
       <c r="J299" s="14"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="7"/>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
@@ -4914,7 +4995,7 @@
       <c r="J300" s="14"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="7"/>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
@@ -4926,7 +5007,7 @@
       <c r="J301" s="14"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="7"/>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
@@ -4938,7 +5019,7 @@
       <c r="J302" s="14"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
@@ -4950,7 +5031,7 @@
       <c r="J303" s="14"/>
       <c r="K303" s="15"/>
     </row>
-    <row r="304" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
@@ -4962,7 +5043,7 @@
       <c r="J304" s="14"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -4974,7 +5055,7 @@
       <c r="J305" s="14"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
@@ -4986,7 +5067,7 @@
       <c r="J306" s="14"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
@@ -4998,7 +5079,7 @@
       <c r="J307" s="14"/>
       <c r="K307" s="15"/>
     </row>
-    <row r="308" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
@@ -5010,7 +5091,7 @@
       <c r="J308" s="14"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
@@ -5022,7 +5103,7 @@
       <c r="J309" s="14"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
@@ -5034,7 +5115,7 @@
       <c r="J310" s="14"/>
       <c r="K310" s="15"/>
     </row>
-    <row r="311" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="7"/>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
@@ -5046,7 +5127,7 @@
       <c r="J311" s="14"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="7"/>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
@@ -5058,7 +5139,7 @@
       <c r="J312" s="14"/>
       <c r="K312" s="15"/>
     </row>
-    <row r="313" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="7"/>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
@@ -5070,7 +5151,7 @@
       <c r="J313" s="14"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="7"/>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
@@ -5082,7 +5163,7 @@
       <c r="J314" s="14"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -5094,7 +5175,7 @@
       <c r="J315" s="14"/>
       <c r="K315" s="15"/>
     </row>
-    <row r="316" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="7"/>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
@@ -5106,7 +5187,7 @@
       <c r="J316" s="14"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="7"/>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
@@ -5118,7 +5199,7 @@
       <c r="J317" s="14"/>
       <c r="K317" s="15"/>
     </row>
-    <row r="318" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="7"/>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
@@ -5130,7 +5211,7 @@
       <c r="J318" s="14"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="7"/>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -5142,7 +5223,7 @@
       <c r="J319" s="14"/>
       <c r="K319" s="15"/>
     </row>
-    <row r="320" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -5154,7 +5235,7 @@
       <c r="J320" s="14"/>
       <c r="K320" s="15"/>
     </row>
-    <row r="321" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="7"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -5166,7 +5247,7 @@
       <c r="J321" s="14"/>
       <c r="K321" s="15"/>
     </row>
-    <row r="322" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="7"/>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
@@ -5178,7 +5259,7 @@
       <c r="J322" s="14"/>
       <c r="K322" s="15"/>
     </row>
-    <row r="323" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="7"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
@@ -5190,7 +5271,7 @@
       <c r="J323" s="14"/>
       <c r="K323" s="15"/>
     </row>
-    <row r="324" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="7"/>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -5202,7 +5283,7 @@
       <c r="J324" s="14"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="7"/>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
@@ -5214,7 +5295,7 @@
       <c r="J325" s="14"/>
       <c r="K325" s="15"/>
     </row>
-    <row r="326" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="7"/>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
@@ -5226,7 +5307,7 @@
       <c r="J326" s="14"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="7"/>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
@@ -5238,7 +5319,7 @@
       <c r="J327" s="14"/>
       <c r="K327" s="15"/>
     </row>
-    <row r="328" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="7"/>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
@@ -5250,7 +5331,7 @@
       <c r="J328" s="14"/>
       <c r="K328" s="15"/>
     </row>
-    <row r="329" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="7"/>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
@@ -5262,7 +5343,7 @@
       <c r="J329" s="14"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="7"/>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
@@ -5274,7 +5355,7 @@
       <c r="J330" s="14"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="7"/>
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
@@ -5286,7 +5367,7 @@
       <c r="J331" s="14"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="7"/>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
@@ -5298,7 +5379,7 @@
       <c r="J332" s="14"/>
       <c r="K332" s="15"/>
     </row>
-    <row r="333" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="7"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
@@ -5310,7 +5391,7 @@
       <c r="J333" s="14"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="7"/>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
@@ -5322,7 +5403,7 @@
       <c r="J334" s="14"/>
       <c r="K334" s="15"/>
     </row>
-    <row r="335" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="7"/>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
@@ -5334,7 +5415,7 @@
       <c r="J335" s="14"/>
       <c r="K335" s="15"/>
     </row>
-    <row r="336" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="7"/>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
@@ -5346,7 +5427,7 @@
       <c r="J336" s="14"/>
       <c r="K336" s="15"/>
     </row>
-    <row r="337" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="7"/>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -5358,7 +5439,7 @@
       <c r="J337" s="14"/>
       <c r="K337" s="15"/>
     </row>
-    <row r="338" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="7"/>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
@@ -5370,7 +5451,7 @@
       <c r="J338" s="14"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="7"/>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
@@ -5382,7 +5463,7 @@
       <c r="J339" s="14"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="7"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -5394,7 +5475,7 @@
       <c r="J340" s="14"/>
       <c r="K340" s="15"/>
     </row>
-    <row r="341" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="7"/>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
@@ -5406,7 +5487,7 @@
       <c r="J341" s="14"/>
       <c r="K341" s="15"/>
     </row>
-    <row r="342" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="7"/>
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
@@ -5418,7 +5499,7 @@
       <c r="J342" s="14"/>
       <c r="K342" s="15"/>
     </row>
-    <row r="343" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="7"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
@@ -5430,7 +5511,7 @@
       <c r="J343" s="14"/>
       <c r="K343" s="15"/>
     </row>
-    <row r="344" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="7"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
@@ -5442,7 +5523,7 @@
       <c r="J344" s="14"/>
       <c r="K344" s="15"/>
     </row>
-    <row r="345" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="7"/>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
@@ -5454,7 +5535,7 @@
       <c r="J345" s="14"/>
       <c r="K345" s="15"/>
     </row>
-    <row r="346" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="7"/>
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
@@ -5466,7 +5547,7 @@
       <c r="J346" s="14"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="7"/>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -5478,7 +5559,7 @@
       <c r="J347" s="14"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="7"/>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
@@ -5490,7 +5571,7 @@
       <c r="J348" s="14"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="7"/>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -5502,7 +5583,7 @@
       <c r="J349" s="14"/>
       <c r="K349" s="15"/>
     </row>
-    <row r="350" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="7"/>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
@@ -5514,7 +5595,7 @@
       <c r="J350" s="14"/>
       <c r="K350" s="15"/>
     </row>
-    <row r="351" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="7"/>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
@@ -5526,7 +5607,7 @@
       <c r="J351" s="14"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="7"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
@@ -5538,7 +5619,7 @@
       <c r="J352" s="14"/>
       <c r="K352" s="15"/>
     </row>
-    <row r="353" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="7"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
@@ -5550,7 +5631,7 @@
       <c r="J353" s="14"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="7"/>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
@@ -5562,7 +5643,7 @@
       <c r="J354" s="14"/>
       <c r="K354" s="15"/>
     </row>
-    <row r="355" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="7"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
@@ -5574,7 +5655,7 @@
       <c r="J355" s="14"/>
       <c r="K355" s="15"/>
     </row>
-    <row r="356" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="7"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
@@ -5586,7 +5667,7 @@
       <c r="J356" s="14"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="7"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
@@ -5598,7 +5679,7 @@
       <c r="J357" s="14"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="7"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
@@ -5610,7 +5691,7 @@
       <c r="J358" s="14"/>
       <c r="K358" s="15"/>
     </row>
-    <row r="359" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="7"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -5622,7 +5703,7 @@
       <c r="J359" s="14"/>
       <c r="K359" s="15"/>
     </row>
-    <row r="360" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="7"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -5634,7 +5715,7 @@
       <c r="J360" s="14"/>
       <c r="K360" s="15"/>
     </row>
-    <row r="361" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="7"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -5646,7 +5727,7 @@
       <c r="J361" s="14"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="7"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -5658,7 +5739,7 @@
       <c r="J362" s="14"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="7"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -5670,7 +5751,7 @@
       <c r="J363" s="14"/>
       <c r="K363" s="15"/>
     </row>
-    <row r="364" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="7"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -5682,7 +5763,7 @@
       <c r="J364" s="14"/>
       <c r="K364" s="15"/>
     </row>
-    <row r="365" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="7"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -5694,7 +5775,7 @@
       <c r="J365" s="14"/>
       <c r="K365" s="15"/>
     </row>
-    <row r="366" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="7"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
@@ -5706,7 +5787,7 @@
       <c r="J366" s="14"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="7"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
@@ -5718,7 +5799,7 @@
       <c r="J367" s="14"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="7"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
@@ -5730,7 +5811,7 @@
       <c r="J368" s="14"/>
       <c r="K368" s="15"/>
     </row>
-    <row r="369" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="7"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
@@ -5742,7 +5823,7 @@
       <c r="J369" s="14"/>
       <c r="K369" s="15"/>
     </row>
-    <row r="370" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="7"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
@@ -5754,7 +5835,7 @@
       <c r="J370" s="14"/>
       <c r="K370" s="15"/>
     </row>
-    <row r="371" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="7"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
@@ -5766,7 +5847,7 @@
       <c r="J371" s="14"/>
       <c r="K371" s="15"/>
     </row>
-    <row r="372" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="7"/>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
@@ -5778,7 +5859,7 @@
       <c r="J372" s="14"/>
       <c r="K372" s="15"/>
     </row>
-    <row r="373" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="7"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
@@ -5790,7 +5871,7 @@
       <c r="J373" s="14"/>
       <c r="K373" s="15"/>
     </row>
-    <row r="374" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="7"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
@@ -5802,7 +5883,7 @@
       <c r="J374" s="14"/>
       <c r="K374" s="15"/>
     </row>
-    <row r="375" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="7"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
@@ -5814,7 +5895,7 @@
       <c r="J375" s="14"/>
       <c r="K375" s="15"/>
     </row>
-    <row r="376" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="7"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
@@ -5826,7 +5907,7 @@
       <c r="J376" s="14"/>
       <c r="K376" s="15"/>
     </row>
-    <row r="377" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="7"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -5838,7 +5919,7 @@
       <c r="J377" s="14"/>
       <c r="K377" s="15"/>
     </row>
-    <row r="378" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="7"/>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
@@ -5850,7 +5931,7 @@
       <c r="J378" s="14"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="7"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
@@ -5862,7 +5943,7 @@
       <c r="J379" s="14"/>
       <c r="K379" s="15"/>
     </row>
-    <row r="380" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="7"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
@@ -5874,7 +5955,7 @@
       <c r="J380" s="14"/>
       <c r="K380" s="15"/>
     </row>
-    <row r="381" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="7"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -5886,7 +5967,7 @@
       <c r="J381" s="14"/>
       <c r="K381" s="15"/>
     </row>
-    <row r="382" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="7"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
@@ -5898,7 +5979,7 @@
       <c r="J382" s="14"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="7"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
@@ -5910,7 +5991,7 @@
       <c r="J383" s="14"/>
       <c r="K383" s="15"/>
     </row>
-    <row r="384" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="7"/>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
@@ -5922,7 +6003,7 @@
       <c r="J384" s="14"/>
       <c r="K384" s="15"/>
     </row>
-    <row r="385" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="7"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
@@ -5934,7 +6015,7 @@
       <c r="J385" s="14"/>
       <c r="K385" s="15"/>
     </row>
-    <row r="386" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="7"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
@@ -5946,7 +6027,7 @@
       <c r="J386" s="14"/>
       <c r="K386" s="15"/>
     </row>
-    <row r="387" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="7"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
@@ -5958,7 +6039,7 @@
       <c r="J387" s="14"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="7"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
@@ -5970,7 +6051,7 @@
       <c r="J388" s="14"/>
       <c r="K388" s="15"/>
     </row>
-    <row r="389" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="7"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
@@ -5982,7 +6063,7 @@
       <c r="J389" s="14"/>
       <c r="K389" s="15"/>
     </row>
-    <row r="390" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="7"/>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
@@ -5994,7 +6075,7 @@
       <c r="J390" s="14"/>
       <c r="K390" s="15"/>
     </row>
-    <row r="391" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="7"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
@@ -6006,7 +6087,7 @@
       <c r="J391" s="14"/>
       <c r="K391" s="15"/>
     </row>
-    <row r="392" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="7"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
@@ -6018,7 +6099,7 @@
       <c r="J392" s="14"/>
       <c r="K392" s="15"/>
     </row>
-    <row r="393" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="7"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
@@ -6030,7 +6111,7 @@
       <c r="J393" s="14"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="7"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
@@ -6042,7 +6123,7 @@
       <c r="J394" s="14"/>
       <c r="K394" s="15"/>
     </row>
-    <row r="395" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="7"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
@@ -6054,7 +6135,7 @@
       <c r="J395" s="14"/>
       <c r="K395" s="15"/>
     </row>
-    <row r="396" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="7"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -6066,7 +6147,7 @@
       <c r="J396" s="14"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="7"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
@@ -6078,7 +6159,7 @@
       <c r="J397" s="14"/>
       <c r="K397" s="15"/>
     </row>
-    <row r="398" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="7"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
@@ -6090,7 +6171,7 @@
       <c r="J398" s="14"/>
       <c r="K398" s="15"/>
     </row>
-    <row r="399" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="7"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
@@ -6102,7 +6183,7 @@
       <c r="J399" s="14"/>
       <c r="K399" s="15"/>
     </row>
-    <row r="400" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="7"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
@@ -6114,7 +6195,7 @@
       <c r="J400" s="14"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="7"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
@@ -6126,7 +6207,7 @@
       <c r="J401" s="14"/>
       <c r="K401" s="15"/>
     </row>
-    <row r="402" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="7"/>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
@@ -6138,7 +6219,7 @@
       <c r="J402" s="14"/>
       <c r="K402" s="15"/>
     </row>
-    <row r="403" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="7"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
@@ -6150,7 +6231,7 @@
       <c r="J403" s="14"/>
       <c r="K403" s="15"/>
     </row>
-    <row r="404" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="7"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
@@ -6162,7 +6243,7 @@
       <c r="J404" s="14"/>
       <c r="K404" s="15"/>
     </row>
-    <row r="405" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="7"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
@@ -6174,7 +6255,7 @@
       <c r="J405" s="14"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="7"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
@@ -6186,7 +6267,7 @@
       <c r="J406" s="14"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="7"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
@@ -6198,7 +6279,7 @@
       <c r="J407" s="14"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="7"/>
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
@@ -6210,7 +6291,7 @@
       <c r="J408" s="14"/>
       <c r="K408" s="15"/>
     </row>
-    <row r="409" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="7"/>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -6222,7 +6303,7 @@
       <c r="J409" s="14"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="7"/>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
@@ -6234,7 +6315,7 @@
       <c r="J410" s="14"/>
       <c r="K410" s="15"/>
     </row>
-    <row r="411" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="7"/>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
@@ -6246,7 +6327,7 @@
       <c r="J411" s="14"/>
       <c r="K411" s="15"/>
     </row>
-    <row r="412" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="7"/>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
@@ -6258,7 +6339,7 @@
       <c r="J412" s="14"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="7"/>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
@@ -6270,7 +6351,7 @@
       <c r="J413" s="14"/>
       <c r="K413" s="15"/>
     </row>
-    <row r="414" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="7"/>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
@@ -6282,7 +6363,7 @@
       <c r="J414" s="14"/>
       <c r="K414" s="15"/>
     </row>
-    <row r="415" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="7"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
@@ -6294,7 +6375,7 @@
       <c r="J415" s="14"/>
       <c r="K415" s="15"/>
     </row>
-    <row r="416" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="7"/>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
@@ -6306,7 +6387,7 @@
       <c r="J416" s="14"/>
       <c r="K416" s="15"/>
     </row>
-    <row r="417" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="7"/>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
@@ -6318,7 +6399,7 @@
       <c r="J417" s="14"/>
       <c r="K417" s="15"/>
     </row>
-    <row r="418" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="7"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
@@ -6330,7 +6411,7 @@
       <c r="J418" s="14"/>
       <c r="K418" s="15"/>
     </row>
-    <row r="419" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="7"/>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
@@ -6342,7 +6423,7 @@
       <c r="J419" s="14"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="7"/>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
@@ -6354,7 +6435,7 @@
       <c r="J420" s="14"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="7"/>
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
@@ -6366,7 +6447,7 @@
       <c r="J421" s="14"/>
       <c r="K421" s="15"/>
     </row>
-    <row r="422" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="7"/>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
@@ -6378,7 +6459,7 @@
       <c r="J422" s="14"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="7"/>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
@@ -6390,7 +6471,7 @@
       <c r="J423" s="14"/>
       <c r="K423" s="15"/>
     </row>
-    <row r="424" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="7"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
@@ -6402,7 +6483,7 @@
       <c r="J424" s="14"/>
       <c r="K424" s="15"/>
     </row>
-    <row r="425" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="7"/>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
@@ -6414,7 +6495,7 @@
       <c r="J425" s="14"/>
       <c r="K425" s="15"/>
     </row>
-    <row r="426" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="7"/>
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
@@ -6426,7 +6507,7 @@
       <c r="J426" s="14"/>
       <c r="K426" s="15"/>
     </row>
-    <row r="427" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="7"/>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
@@ -6438,7 +6519,7 @@
       <c r="J427" s="14"/>
       <c r="K427" s="15"/>
     </row>
-    <row r="428" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="7"/>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
@@ -6450,7 +6531,7 @@
       <c r="J428" s="14"/>
       <c r="K428" s="15"/>
     </row>
-    <row r="429" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="7"/>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
@@ -6462,7 +6543,7 @@
       <c r="J429" s="14"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="7"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
@@ -6474,7 +6555,7 @@
       <c r="J430" s="14"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="7"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -6486,7 +6567,7 @@
       <c r="J431" s="14"/>
       <c r="K431" s="15"/>
     </row>
-    <row r="432" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="7"/>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
@@ -6498,7 +6579,7 @@
       <c r="J432" s="14"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="7"/>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
@@ -6510,7 +6591,7 @@
       <c r="J433" s="14"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="7"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
@@ -6522,7 +6603,7 @@
       <c r="J434" s="14"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="7"/>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
@@ -6534,7 +6615,7 @@
       <c r="J435" s="14"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="7"/>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
@@ -6546,7 +6627,7 @@
       <c r="J436" s="14"/>
       <c r="K436" s="15"/>
     </row>
-    <row r="437" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="7"/>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
@@ -6558,7 +6639,7 @@
       <c r="J437" s="14"/>
       <c r="K437" s="15"/>
     </row>
-    <row r="438" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="7"/>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
@@ -6570,7 +6651,7 @@
       <c r="J438" s="14"/>
       <c r="K438" s="15"/>
     </row>
-    <row r="439" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="7"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
@@ -6582,7 +6663,7 @@
       <c r="J439" s="14"/>
       <c r="K439" s="15"/>
     </row>
-    <row r="440" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="7"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
@@ -6594,7 +6675,7 @@
       <c r="J440" s="14"/>
       <c r="K440" s="15"/>
     </row>
-    <row r="441" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="7"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
@@ -6606,7 +6687,7 @@
       <c r="J441" s="14"/>
       <c r="K441" s="15"/>
     </row>
-    <row r="442" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="7"/>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
@@ -6618,7 +6699,7 @@
       <c r="J442" s="14"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="7"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
@@ -6630,7 +6711,7 @@
       <c r="J443" s="14"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="7"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
@@ -6642,7 +6723,7 @@
       <c r="J444" s="14"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="7"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
@@ -6654,7 +6735,7 @@
       <c r="J445" s="14"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="7"/>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
@@ -6666,7 +6747,7 @@
       <c r="J446" s="14"/>
       <c r="K446" s="15"/>
     </row>
-    <row r="447" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="7"/>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
@@ -6678,7 +6759,7 @@
       <c r="J447" s="14"/>
       <c r="K447" s="15"/>
     </row>
-    <row r="448" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="7"/>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
@@ -6690,7 +6771,7 @@
       <c r="J448" s="14"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="7"/>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
@@ -6702,7 +6783,7 @@
       <c r="J449" s="14"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="7"/>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
@@ -6714,7 +6795,7 @@
       <c r="J450" s="14"/>
       <c r="K450" s="15"/>
     </row>
-    <row r="451" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="7"/>
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
@@ -6726,7 +6807,7 @@
       <c r="J451" s="14"/>
       <c r="K451" s="15"/>
     </row>
-    <row r="452" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="7"/>
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
@@ -6738,7 +6819,7 @@
       <c r="J452" s="14"/>
       <c r="K452" s="15"/>
     </row>
-    <row r="453" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="7"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
@@ -6750,7 +6831,7 @@
       <c r="J453" s="14"/>
       <c r="K453" s="15"/>
     </row>
-    <row r="454" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="7"/>
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
@@ -6762,7 +6843,7 @@
       <c r="J454" s="14"/>
       <c r="K454" s="15"/>
     </row>
-    <row r="455" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="7"/>
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
@@ -6774,7 +6855,7 @@
       <c r="J455" s="14"/>
       <c r="K455" s="15"/>
     </row>
-    <row r="456" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="7"/>
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
@@ -6786,7 +6867,7 @@
       <c r="J456" s="14"/>
       <c r="K456" s="15"/>
     </row>
-    <row r="457" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="7"/>
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
@@ -6798,7 +6879,7 @@
       <c r="J457" s="14"/>
       <c r="K457" s="15"/>
     </row>
-    <row r="458" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="7"/>
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
@@ -6810,7 +6891,7 @@
       <c r="J458" s="14"/>
       <c r="K458" s="15"/>
     </row>
-    <row r="459" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="7"/>
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
@@ -6822,7 +6903,7 @@
       <c r="J459" s="14"/>
       <c r="K459" s="15"/>
     </row>
-    <row r="460" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="7"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
@@ -6834,7 +6915,7 @@
       <c r="J460" s="14"/>
       <c r="K460" s="15"/>
     </row>
-    <row r="461" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="7"/>
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
@@ -6846,7 +6927,7 @@
       <c r="J461" s="14"/>
       <c r="K461" s="15"/>
     </row>
-    <row r="462" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="7"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
@@ -6858,7 +6939,7 @@
       <c r="J462" s="14"/>
       <c r="K462" s="15"/>
     </row>
-    <row r="463" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="7"/>
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
@@ -6870,7 +6951,7 @@
       <c r="J463" s="14"/>
       <c r="K463" s="15"/>
     </row>
-    <row r="464" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="7"/>
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
@@ -6882,7 +6963,7 @@
       <c r="J464" s="14"/>
       <c r="K464" s="15"/>
     </row>
-    <row r="465" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="7"/>
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
@@ -6894,7 +6975,7 @@
       <c r="J465" s="14"/>
       <c r="K465" s="15"/>
     </row>
-    <row r="466" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="7"/>
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
@@ -6906,7 +6987,7 @@
       <c r="J466" s="14"/>
       <c r="K466" s="15"/>
     </row>
-    <row r="467" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="7"/>
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
@@ -6918,7 +6999,7 @@
       <c r="J467" s="14"/>
       <c r="K467" s="15"/>
     </row>
-    <row r="468" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="7"/>
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
@@ -6930,7 +7011,7 @@
       <c r="J468" s="14"/>
       <c r="K468" s="15"/>
     </row>
-    <row r="469" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="7"/>
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
@@ -6942,7 +7023,7 @@
       <c r="J469" s="14"/>
       <c r="K469" s="15"/>
     </row>
-    <row r="470" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="7"/>
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
@@ -6954,7 +7035,7 @@
       <c r="J470" s="14"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="7"/>
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
@@ -6966,7 +7047,7 @@
       <c r="J471" s="14"/>
       <c r="K471" s="15"/>
     </row>
-    <row r="472" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="7"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
@@ -6978,7 +7059,7 @@
       <c r="J472" s="14"/>
       <c r="K472" s="15"/>
     </row>
-    <row r="473" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="7"/>
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
@@ -6990,7 +7071,7 @@
       <c r="J473" s="14"/>
       <c r="K473" s="15"/>
     </row>
-    <row r="474" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="7"/>
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
@@ -7002,7 +7083,7 @@
       <c r="J474" s="14"/>
       <c r="K474" s="15"/>
     </row>
-    <row r="475" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="7"/>
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
@@ -7014,7 +7095,7 @@
       <c r="J475" s="14"/>
       <c r="K475" s="15"/>
     </row>
-    <row r="476" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="7"/>
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
@@ -7026,7 +7107,7 @@
       <c r="J476" s="14"/>
       <c r="K476" s="15"/>
     </row>
-    <row r="477" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="7"/>
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
@@ -7038,7 +7119,7 @@
       <c r="J477" s="14"/>
       <c r="K477" s="15"/>
     </row>
-    <row r="478" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="7"/>
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
@@ -7050,7 +7131,7 @@
       <c r="J478" s="14"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="7"/>
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
@@ -7062,7 +7143,7 @@
       <c r="J479" s="14"/>
       <c r="K479" s="15"/>
     </row>
-    <row r="480" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="7"/>
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
@@ -7074,7 +7155,7 @@
       <c r="J480" s="14"/>
       <c r="K480" s="15"/>
     </row>
-    <row r="481" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="7"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
@@ -7086,7 +7167,7 @@
       <c r="J481" s="14"/>
       <c r="K481" s="15"/>
     </row>
-    <row r="482" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="7"/>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
@@ -7098,7 +7179,7 @@
       <c r="J482" s="14"/>
       <c r="K482" s="15"/>
     </row>
-    <row r="483" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="7"/>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
@@ -7110,7 +7191,7 @@
       <c r="J483" s="14"/>
       <c r="K483" s="15"/>
     </row>
-    <row r="484" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="7"/>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
@@ -7122,7 +7203,7 @@
       <c r="J484" s="14"/>
       <c r="K484" s="15"/>
     </row>
-    <row r="485" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="7"/>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
@@ -7134,7 +7215,7 @@
       <c r="J485" s="14"/>
       <c r="K485" s="15"/>
     </row>
-    <row r="486" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="7"/>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
@@ -7146,7 +7227,7 @@
       <c r="J486" s="14"/>
       <c r="K486" s="15"/>
     </row>
-    <row r="487" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="7"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
@@ -7158,7 +7239,7 @@
       <c r="J487" s="14"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="7"/>
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
@@ -7170,7 +7251,7 @@
       <c r="J488" s="14"/>
       <c r="K488" s="15"/>
     </row>
-    <row r="489" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="7"/>
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
@@ -7182,7 +7263,7 @@
       <c r="J489" s="14"/>
       <c r="K489" s="15"/>
     </row>
-    <row r="490" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="7"/>
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
@@ -7194,7 +7275,7 @@
       <c r="J490" s="14"/>
       <c r="K490" s="15"/>
     </row>
-    <row r="491" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="7"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
@@ -7206,7 +7287,7 @@
       <c r="J491" s="14"/>
       <c r="K491" s="15"/>
     </row>
-    <row r="492" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="7"/>
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
@@ -7218,7 +7299,7 @@
       <c r="J492" s="14"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="7"/>
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
@@ -7230,7 +7311,7 @@
       <c r="J493" s="14"/>
       <c r="K493" s="15"/>
     </row>
-    <row r="494" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="7"/>
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
@@ -7242,7 +7323,7 @@
       <c r="J494" s="14"/>
       <c r="K494" s="15"/>
     </row>
-    <row r="495" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="7"/>
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
@@ -7254,7 +7335,7 @@
       <c r="J495" s="14"/>
       <c r="K495" s="15"/>
     </row>
-    <row r="496" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="7"/>
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
@@ -7266,7 +7347,7 @@
       <c r="J496" s="14"/>
       <c r="K496" s="15"/>
     </row>
-    <row r="497" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="7"/>
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
@@ -7278,7 +7359,7 @@
       <c r="J497" s="14"/>
       <c r="K497" s="15"/>
     </row>
-    <row r="498" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="7"/>
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
@@ -7290,7 +7371,7 @@
       <c r="J498" s="14"/>
       <c r="K498" s="15"/>
     </row>
-    <row r="499" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="7"/>
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
@@ -7302,7 +7383,7 @@
       <c r="J499" s="14"/>
       <c r="K499" s="15"/>
     </row>
-    <row r="500" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="7"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
@@ -7314,7 +7395,7 @@
       <c r="J500" s="14"/>
       <c r="K500" s="15"/>
     </row>
-    <row r="501" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="7"/>
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
@@ -7326,7 +7407,7 @@
       <c r="J501" s="14"/>
       <c r="K501" s="15"/>
     </row>
-    <row r="502" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="7"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
@@ -7338,7 +7419,7 @@
       <c r="J502" s="14"/>
       <c r="K502" s="15"/>
     </row>
-    <row r="503" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="7"/>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
@@ -7350,7 +7431,7 @@
       <c r="J503" s="14"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="7"/>
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
@@ -7362,7 +7443,7 @@
       <c r="J504" s="14"/>
       <c r="K504" s="15"/>
     </row>
-    <row r="505" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="7"/>
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
@@ -7374,7 +7455,7 @@
       <c r="J505" s="14"/>
       <c r="K505" s="15"/>
     </row>
-    <row r="506" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="7"/>
       <c r="C506" s="8"/>
       <c r="D506" s="8"/>
@@ -7386,7 +7467,7 @@
       <c r="J506" s="14"/>
       <c r="K506" s="15"/>
     </row>
-    <row r="507" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="7"/>
       <c r="C507" s="8"/>
       <c r="D507" s="8"/>
@@ -7398,7 +7479,7 @@
       <c r="J507" s="14"/>
       <c r="K507" s="15"/>
     </row>
-    <row r="508" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="7"/>
       <c r="C508" s="8"/>
       <c r="D508" s="8"/>
@@ -7410,7 +7491,7 @@
       <c r="J508" s="14"/>
       <c r="K508" s="15"/>
     </row>
-    <row r="509" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="7"/>
       <c r="C509" s="8"/>
       <c r="D509" s="8"/>
@@ -7422,7 +7503,7 @@
       <c r="J509" s="14"/>
       <c r="K509" s="15"/>
     </row>
-    <row r="510" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="7"/>
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
@@ -7434,7 +7515,7 @@
       <c r="J510" s="14"/>
       <c r="K510" s="15"/>
     </row>
-    <row r="511" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="7"/>
       <c r="C511" s="8"/>
       <c r="D511" s="8"/>
@@ -7446,7 +7527,7 @@
       <c r="J511" s="14"/>
       <c r="K511" s="15"/>
     </row>
-    <row r="512" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="7"/>
       <c r="C512" s="8"/>
       <c r="D512" s="8"/>
@@ -7458,7 +7539,7 @@
       <c r="J512" s="14"/>
       <c r="K512" s="15"/>
     </row>
-    <row r="513" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="7"/>
       <c r="C513" s="8"/>
       <c r="D513" s="8"/>
@@ -7470,7 +7551,7 @@
       <c r="J513" s="14"/>
       <c r="K513" s="15"/>
     </row>
-    <row r="514" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="7"/>
       <c r="C514" s="8"/>
       <c r="D514" s="8"/>
@@ -7482,7 +7563,7 @@
       <c r="J514" s="14"/>
       <c r="K514" s="15"/>
     </row>
-    <row r="515" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="7"/>
       <c r="C515" s="8"/>
       <c r="D515" s="8"/>
@@ -7494,7 +7575,7 @@
       <c r="J515" s="14"/>
       <c r="K515" s="15"/>
     </row>
-    <row r="516" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="7"/>
       <c r="C516" s="8"/>
       <c r="D516" s="8"/>
@@ -7506,7 +7587,7 @@
       <c r="J516" s="14"/>
       <c r="K516" s="15"/>
     </row>
-    <row r="517" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="7"/>
       <c r="C517" s="8"/>
       <c r="D517" s="8"/>
@@ -7518,7 +7599,7 @@
       <c r="J517" s="14"/>
       <c r="K517" s="15"/>
     </row>
-    <row r="518" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="7"/>
       <c r="C518" s="8"/>
       <c r="D518" s="8"/>
@@ -7530,7 +7611,7 @@
       <c r="J518" s="14"/>
       <c r="K518" s="15"/>
     </row>
-    <row r="519" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="7"/>
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
@@ -7542,7 +7623,7 @@
       <c r="J519" s="14"/>
       <c r="K519" s="15"/>
     </row>
-    <row r="520" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="7"/>
       <c r="C520" s="8"/>
       <c r="D520" s="8"/>
@@ -7554,7 +7635,7 @@
       <c r="J520" s="14"/>
       <c r="K520" s="15"/>
     </row>
-    <row r="521" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="7"/>
       <c r="C521" s="8"/>
       <c r="D521" s="8"/>
@@ -7566,7 +7647,7 @@
       <c r="J521" s="14"/>
       <c r="K521" s="15"/>
     </row>
-    <row r="522" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="7"/>
       <c r="C522" s="8"/>
       <c r="D522" s="8"/>
@@ -7578,7 +7659,7 @@
       <c r="J522" s="14"/>
       <c r="K522" s="15"/>
     </row>
-    <row r="523" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="7"/>
       <c r="C523" s="8"/>
       <c r="D523" s="8"/>
@@ -7590,7 +7671,7 @@
       <c r="J523" s="14"/>
       <c r="K523" s="15"/>
     </row>
-    <row r="524" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="7"/>
       <c r="C524" s="8"/>
       <c r="D524" s="8"/>
@@ -7602,7 +7683,7 @@
       <c r="J524" s="14"/>
       <c r="K524" s="15"/>
     </row>
-    <row r="525" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="7"/>
       <c r="C525" s="8"/>
       <c r="D525" s="8"/>
@@ -7614,7 +7695,7 @@
       <c r="J525" s="14"/>
       <c r="K525" s="15"/>
     </row>
-    <row r="526" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="7"/>
       <c r="C526" s="8"/>
       <c r="D526" s="8"/>
@@ -7626,7 +7707,7 @@
       <c r="J526" s="14"/>
       <c r="K526" s="15"/>
     </row>
-    <row r="527" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="7"/>
       <c r="C527" s="8"/>
       <c r="D527" s="8"/>
@@ -7638,7 +7719,7 @@
       <c r="J527" s="14"/>
       <c r="K527" s="15"/>
     </row>
-    <row r="528" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="7"/>
       <c r="C528" s="8"/>
       <c r="D528" s="8"/>
@@ -7650,7 +7731,7 @@
       <c r="J528" s="14"/>
       <c r="K528" s="15"/>
     </row>
-    <row r="529" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="7"/>
       <c r="C529" s="8"/>
       <c r="D529" s="8"/>
@@ -7662,7 +7743,7 @@
       <c r="J529" s="14"/>
       <c r="K529" s="15"/>
     </row>
-    <row r="530" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="7"/>
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
@@ -7674,7 +7755,7 @@
       <c r="J530" s="14"/>
       <c r="K530" s="15"/>
     </row>
-    <row r="531" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="7"/>
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
@@ -7686,7 +7767,7 @@
       <c r="J531" s="14"/>
       <c r="K531" s="15"/>
     </row>
-    <row r="532" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="7"/>
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
@@ -7698,7 +7779,7 @@
       <c r="J532" s="14"/>
       <c r="K532" s="15"/>
     </row>
-    <row r="533" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="7"/>
       <c r="C533" s="8"/>
       <c r="D533" s="8"/>
@@ -7710,7 +7791,7 @@
       <c r="J533" s="14"/>
       <c r="K533" s="15"/>
     </row>
-    <row r="534" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="7"/>
       <c r="C534" s="8"/>
       <c r="D534" s="8"/>
@@ -7722,7 +7803,7 @@
       <c r="J534" s="14"/>
       <c r="K534" s="15"/>
     </row>
-    <row r="535" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="7"/>
       <c r="C535" s="8"/>
       <c r="D535" s="8"/>
@@ -7734,7 +7815,7 @@
       <c r="J535" s="14"/>
       <c r="K535" s="15"/>
     </row>
-    <row r="536" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="7"/>
       <c r="C536" s="8"/>
       <c r="D536" s="8"/>
@@ -7746,7 +7827,7 @@
       <c r="J536" s="14"/>
       <c r="K536" s="15"/>
     </row>
-    <row r="537" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="7"/>
       <c r="C537" s="8"/>
       <c r="D537" s="8"/>
@@ -7758,7 +7839,7 @@
       <c r="J537" s="14"/>
       <c r="K537" s="15"/>
     </row>
-    <row r="538" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="7"/>
       <c r="C538" s="8"/>
       <c r="D538" s="8"/>
@@ -7770,7 +7851,7 @@
       <c r="J538" s="14"/>
       <c r="K538" s="15"/>
     </row>
-    <row r="539" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="7"/>
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
@@ -7782,7 +7863,7 @@
       <c r="J539" s="14"/>
       <c r="K539" s="15"/>
     </row>
-    <row r="540" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="7"/>
       <c r="C540" s="8"/>
       <c r="D540" s="8"/>
@@ -7794,7 +7875,7 @@
       <c r="J540" s="14"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="7"/>
       <c r="C541" s="8"/>
       <c r="D541" s="8"/>
@@ -7806,7 +7887,7 @@
       <c r="J541" s="14"/>
       <c r="K541" s="15"/>
     </row>
-    <row r="542" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="7"/>
       <c r="C542" s="8"/>
       <c r="D542" s="8"/>
@@ -7818,7 +7899,7 @@
       <c r="J542" s="14"/>
       <c r="K542" s="15"/>
     </row>
-    <row r="543" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="7"/>
       <c r="C543" s="8"/>
       <c r="D543" s="8"/>
@@ -7830,7 +7911,7 @@
       <c r="J543" s="14"/>
       <c r="K543" s="15"/>
     </row>
-    <row r="544" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="7"/>
       <c r="C544" s="8"/>
       <c r="D544" s="8"/>
@@ -7842,7 +7923,7 @@
       <c r="J544" s="14"/>
       <c r="K544" s="15"/>
     </row>
-    <row r="545" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="7"/>
       <c r="C545" s="8"/>
       <c r="D545" s="8"/>
@@ -7854,7 +7935,7 @@
       <c r="J545" s="14"/>
       <c r="K545" s="15"/>
     </row>
-    <row r="546" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="7"/>
       <c r="C546" s="8"/>
       <c r="D546" s="8"/>
@@ -7866,7 +7947,7 @@
       <c r="J546" s="14"/>
       <c r="K546" s="15"/>
     </row>
-    <row r="547" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="7"/>
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
@@ -7878,7 +7959,7 @@
       <c r="J547" s="14"/>
       <c r="K547" s="15"/>
     </row>
-    <row r="548" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="7"/>
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
@@ -7890,7 +7971,7 @@
       <c r="J548" s="14"/>
       <c r="K548" s="15"/>
     </row>
-    <row r="549" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="7"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
@@ -7902,7 +7983,7 @@
       <c r="J549" s="14"/>
       <c r="K549" s="15"/>
     </row>
-    <row r="550" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="7"/>
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
@@ -7914,7 +7995,7 @@
       <c r="J550" s="14"/>
       <c r="K550" s="15"/>
     </row>
-    <row r="551" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="7"/>
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
@@ -7926,7 +8007,7 @@
       <c r="J551" s="14"/>
       <c r="K551" s="15"/>
     </row>
-    <row r="552" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="7"/>
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
@@ -7938,7 +8019,7 @@
       <c r="J552" s="14"/>
       <c r="K552" s="15"/>
     </row>
-    <row r="553" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="7"/>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
@@ -7950,7 +8031,7 @@
       <c r="J553" s="14"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="7"/>
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
@@ -7962,7 +8043,7 @@
       <c r="J554" s="14"/>
       <c r="K554" s="15"/>
     </row>
-    <row r="555" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="7"/>
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
@@ -7974,7 +8055,7 @@
       <c r="J555" s="14"/>
       <c r="K555" s="15"/>
     </row>
-    <row r="556" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="7"/>
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
@@ -7986,7 +8067,7 @@
       <c r="J556" s="14"/>
       <c r="K556" s="15"/>
     </row>
-    <row r="557" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="7"/>
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
@@ -7998,7 +8079,7 @@
       <c r="J557" s="14"/>
       <c r="K557" s="15"/>
     </row>
-    <row r="558" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="7"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
@@ -8010,7 +8091,7 @@
       <c r="J558" s="14"/>
       <c r="K558" s="15"/>
     </row>
-    <row r="559" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="7"/>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
@@ -8022,7 +8103,7 @@
       <c r="J559" s="14"/>
       <c r="K559" s="15"/>
     </row>
-    <row r="560" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="7"/>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
@@ -8034,7 +8115,7 @@
       <c r="J560" s="14"/>
       <c r="K560" s="15"/>
     </row>
-    <row r="561" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="7"/>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
@@ -8046,7 +8127,7 @@
       <c r="J561" s="14"/>
       <c r="K561" s="15"/>
     </row>
-    <row r="562" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="7"/>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -8058,7 +8139,7 @@
       <c r="J562" s="14"/>
       <c r="K562" s="15"/>
     </row>
-    <row r="563" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="7"/>
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
@@ -8070,7 +8151,7 @@
       <c r="J563" s="14"/>
       <c r="K563" s="15"/>
     </row>
-    <row r="564" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="7"/>
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
@@ -8082,7 +8163,7 @@
       <c r="J564" s="14"/>
       <c r="K564" s="15"/>
     </row>
-    <row r="565" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="7"/>
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
@@ -8094,7 +8175,7 @@
       <c r="J565" s="14"/>
       <c r="K565" s="15"/>
     </row>
-    <row r="566" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="7"/>
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
@@ -8106,7 +8187,7 @@
       <c r="J566" s="14"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="7"/>
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
@@ -8118,7 +8199,7 @@
       <c r="J567" s="14"/>
       <c r="K567" s="15"/>
     </row>
-    <row r="568" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="7"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -8130,7 +8211,7 @@
       <c r="J568" s="14"/>
       <c r="K568" s="15"/>
     </row>
-    <row r="569" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="7"/>
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
@@ -8142,7 +8223,7 @@
       <c r="J569" s="14"/>
       <c r="K569" s="15"/>
     </row>
-    <row r="570" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="7"/>
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
@@ -8154,7 +8235,7 @@
       <c r="J570" s="14"/>
       <c r="K570" s="15"/>
     </row>
-    <row r="571" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="7"/>
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
@@ -8166,7 +8247,7 @@
       <c r="J571" s="14"/>
       <c r="K571" s="15"/>
     </row>
-    <row r="572" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="7"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -8178,7 +8259,7 @@
       <c r="J572" s="14"/>
       <c r="K572" s="15"/>
     </row>
-    <row r="573" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="7"/>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
@@ -8190,7 +8271,7 @@
       <c r="J573" s="14"/>
       <c r="K573" s="15"/>
     </row>
-    <row r="574" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="7"/>
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
@@ -8202,7 +8283,7 @@
       <c r="J574" s="14"/>
       <c r="K574" s="15"/>
     </row>
-    <row r="575" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="7"/>
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
@@ -8214,7 +8295,7 @@
       <c r="J575" s="14"/>
       <c r="K575" s="15"/>
     </row>
-    <row r="576" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="7"/>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
@@ -8226,7 +8307,7 @@
       <c r="J576" s="14"/>
       <c r="K576" s="15"/>
     </row>
-    <row r="577" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="7"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
@@ -8238,7 +8319,7 @@
       <c r="J577" s="14"/>
       <c r="K577" s="15"/>
     </row>
-    <row r="578" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="7"/>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
@@ -8250,7 +8331,7 @@
       <c r="J578" s="14"/>
       <c r="K578" s="15"/>
     </row>
-    <row r="579" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="7"/>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
@@ -8262,7 +8343,7 @@
       <c r="J579" s="14"/>
       <c r="K579" s="15"/>
     </row>
-    <row r="580" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="7"/>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
@@ -8274,7 +8355,7 @@
       <c r="J580" s="14"/>
       <c r="K580" s="15"/>
     </row>
-    <row r="581" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="7"/>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
@@ -8286,7 +8367,7 @@
       <c r="J581" s="14"/>
       <c r="K581" s="15"/>
     </row>
-    <row r="582" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="7"/>
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
@@ -8298,7 +8379,7 @@
       <c r="J582" s="14"/>
       <c r="K582" s="15"/>
     </row>
-    <row r="583" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="7"/>
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
@@ -8310,7 +8391,7 @@
       <c r="J583" s="14"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="7"/>
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
@@ -8322,7 +8403,7 @@
       <c r="J584" s="14"/>
       <c r="K584" s="15"/>
     </row>
-    <row r="585" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="7"/>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
@@ -8334,7 +8415,7 @@
       <c r="J585" s="14"/>
       <c r="K585" s="15"/>
     </row>
-    <row r="586" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="7"/>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
@@ -8346,7 +8427,7 @@
       <c r="J586" s="14"/>
       <c r="K586" s="15"/>
     </row>
-    <row r="587" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="7"/>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
@@ -8358,7 +8439,7 @@
       <c r="J587" s="14"/>
       <c r="K587" s="15"/>
     </row>
-    <row r="588" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="7"/>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
@@ -8370,7 +8451,7 @@
       <c r="J588" s="14"/>
       <c r="K588" s="15"/>
     </row>
-    <row r="589" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="7"/>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
@@ -8382,7 +8463,7 @@
       <c r="J589" s="14"/>
       <c r="K589" s="15"/>
     </row>
-    <row r="590" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="7"/>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
@@ -8394,7 +8475,7 @@
       <c r="J590" s="14"/>
       <c r="K590" s="15"/>
     </row>
-    <row r="591" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="7"/>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
@@ -8406,7 +8487,7 @@
       <c r="J591" s="14"/>
       <c r="K591" s="15"/>
     </row>
-    <row r="592" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="7"/>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
@@ -8418,7 +8499,7 @@
       <c r="J592" s="14"/>
       <c r="K592" s="15"/>
     </row>
-    <row r="593" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="7"/>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
@@ -8430,7 +8511,7 @@
       <c r="J593" s="14"/>
       <c r="K593" s="15"/>
     </row>
-    <row r="594" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="7"/>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
@@ -8442,7 +8523,7 @@
       <c r="J594" s="14"/>
       <c r="K594" s="15"/>
     </row>
-    <row r="595" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="7"/>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
@@ -8454,7 +8535,7 @@
       <c r="J595" s="14"/>
       <c r="K595" s="15"/>
     </row>
-    <row r="596" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="7"/>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
@@ -8466,7 +8547,7 @@
       <c r="J596" s="14"/>
       <c r="K596" s="15"/>
     </row>
-    <row r="597" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="7"/>
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
@@ -8478,7 +8559,7 @@
       <c r="J597" s="14"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="7"/>
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
@@ -8490,7 +8571,7 @@
       <c r="J598" s="14"/>
       <c r="K598" s="15"/>
     </row>
-    <row r="599" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="7"/>
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
@@ -8502,7 +8583,7 @@
       <c r="J599" s="14"/>
       <c r="K599" s="15"/>
     </row>
-    <row r="600" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="7"/>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
@@ -8514,7 +8595,7 @@
       <c r="J600" s="14"/>
       <c r="K600" s="15"/>
     </row>
-    <row r="601" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="7"/>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
@@ -8526,7 +8607,7 @@
       <c r="J601" s="14"/>
       <c r="K601" s="15"/>
     </row>
-    <row r="602" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="7"/>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
@@ -8538,7 +8619,7 @@
       <c r="J602" s="14"/>
       <c r="K602" s="15"/>
     </row>
-    <row r="603" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="7"/>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
@@ -8550,7 +8631,7 @@
       <c r="J603" s="14"/>
       <c r="K603" s="15"/>
     </row>
-    <row r="604" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="7"/>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
@@ -8562,7 +8643,7 @@
       <c r="J604" s="14"/>
       <c r="K604" s="15"/>
     </row>
-    <row r="605" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="7"/>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
@@ -8574,7 +8655,7 @@
       <c r="J605" s="14"/>
       <c r="K605" s="15"/>
     </row>
-    <row r="606" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="7"/>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
@@ -8586,7 +8667,7 @@
       <c r="J606" s="14"/>
       <c r="K606" s="15"/>
     </row>
-    <row r="607" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="7"/>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
@@ -8598,7 +8679,7 @@
       <c r="J607" s="14"/>
       <c r="K607" s="15"/>
     </row>
-    <row r="608" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="7"/>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -8610,7 +8691,7 @@
       <c r="J608" s="14"/>
       <c r="K608" s="15"/>
     </row>
-    <row r="609" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="7"/>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
@@ -8622,7 +8703,7 @@
       <c r="J609" s="14"/>
       <c r="K609" s="15"/>
     </row>
-    <row r="610" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="7"/>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
@@ -8634,7 +8715,7 @@
       <c r="J610" s="14"/>
       <c r="K610" s="15"/>
     </row>
-    <row r="611" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="7"/>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
@@ -8646,7 +8727,7 @@
       <c r="J611" s="14"/>
       <c r="K611" s="15"/>
     </row>
-    <row r="612" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="7"/>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
@@ -8658,7 +8739,7 @@
       <c r="J612" s="14"/>
       <c r="K612" s="15"/>
     </row>
-    <row r="613" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="7"/>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
@@ -8670,7 +8751,7 @@
       <c r="J613" s="14"/>
       <c r="K613" s="15"/>
     </row>
-    <row r="614" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="7"/>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
@@ -8682,7 +8763,7 @@
       <c r="J614" s="14"/>
       <c r="K614" s="15"/>
     </row>
-    <row r="615" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="7"/>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
@@ -8694,7 +8775,7 @@
       <c r="J615" s="14"/>
       <c r="K615" s="15"/>
     </row>
-    <row r="616" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="7"/>
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
@@ -8706,7 +8787,7 @@
       <c r="J616" s="14"/>
       <c r="K616" s="15"/>
     </row>
-    <row r="617" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="7"/>
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
@@ -8718,7 +8799,7 @@
       <c r="J617" s="14"/>
       <c r="K617" s="15"/>
     </row>
-    <row r="618" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="7"/>
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
@@ -8730,7 +8811,7 @@
       <c r="J618" s="14"/>
       <c r="K618" s="15"/>
     </row>
-    <row r="619" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="7"/>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
@@ -8742,7 +8823,7 @@
       <c r="J619" s="14"/>
       <c r="K619" s="15"/>
     </row>
-    <row r="620" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="7"/>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
@@ -8754,7 +8835,7 @@
       <c r="J620" s="14"/>
       <c r="K620" s="15"/>
     </row>
-    <row r="621" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="7"/>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
@@ -8766,7 +8847,7 @@
       <c r="J621" s="14"/>
       <c r="K621" s="15"/>
     </row>
-    <row r="622" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="7"/>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
@@ -8778,7 +8859,7 @@
       <c r="J622" s="14"/>
       <c r="K622" s="15"/>
     </row>
-    <row r="623" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="7"/>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
@@ -8790,7 +8871,7 @@
       <c r="J623" s="14"/>
       <c r="K623" s="15"/>
     </row>
-    <row r="624" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="7"/>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
@@ -8802,7 +8883,7 @@
       <c r="J624" s="14"/>
       <c r="K624" s="15"/>
     </row>
-    <row r="625" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="7"/>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
@@ -8814,7 +8895,7 @@
       <c r="J625" s="14"/>
       <c r="K625" s="15"/>
     </row>
-    <row r="626" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="7"/>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
@@ -8826,7 +8907,7 @@
       <c r="J626" s="14"/>
       <c r="K626" s="15"/>
     </row>
-    <row r="627" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="7"/>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
@@ -8838,7 +8919,7 @@
       <c r="J627" s="14"/>
       <c r="K627" s="15"/>
     </row>
-    <row r="628" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="7"/>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
@@ -8850,7 +8931,7 @@
       <c r="J628" s="14"/>
       <c r="K628" s="15"/>
     </row>
-    <row r="629" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="7"/>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
@@ -8862,7 +8943,7 @@
       <c r="J629" s="14"/>
       <c r="K629" s="15"/>
     </row>
-    <row r="630" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="7"/>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
@@ -8874,7 +8955,7 @@
       <c r="J630" s="14"/>
       <c r="K630" s="15"/>
     </row>
-    <row r="631" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="7"/>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -8886,7 +8967,7 @@
       <c r="J631" s="14"/>
       <c r="K631" s="15"/>
     </row>
-    <row r="632" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="7"/>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
@@ -8898,7 +8979,7 @@
       <c r="J632" s="14"/>
       <c r="K632" s="15"/>
     </row>
-    <row r="633" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="7"/>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
@@ -8910,7 +8991,7 @@
       <c r="J633" s="14"/>
       <c r="K633" s="15"/>
     </row>
-    <row r="634" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="7"/>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
@@ -8922,7 +9003,7 @@
       <c r="J634" s="14"/>
       <c r="K634" s="15"/>
     </row>
-    <row r="635" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="7"/>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
@@ -8934,7 +9015,7 @@
       <c r="J635" s="14"/>
       <c r="K635" s="15"/>
     </row>
-    <row r="636" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="7"/>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
@@ -8946,7 +9027,7 @@
       <c r="J636" s="14"/>
       <c r="K636" s="15"/>
     </row>
-    <row r="637" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="7"/>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
@@ -8958,7 +9039,7 @@
       <c r="J637" s="14"/>
       <c r="K637" s="15"/>
     </row>
-    <row r="638" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="7"/>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
@@ -8970,7 +9051,7 @@
       <c r="J638" s="14"/>
       <c r="K638" s="15"/>
     </row>
-    <row r="639" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="7"/>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
@@ -8982,7 +9063,7 @@
       <c r="J639" s="14"/>
       <c r="K639" s="15"/>
     </row>
-    <row r="640" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="7"/>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
@@ -8994,7 +9075,7 @@
       <c r="J640" s="14"/>
       <c r="K640" s="15"/>
     </row>
-    <row r="641" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="7"/>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
@@ -9006,7 +9087,7 @@
       <c r="J641" s="14"/>
       <c r="K641" s="15"/>
     </row>
-    <row r="642" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="7"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -9018,7 +9099,7 @@
       <c r="J642" s="14"/>
       <c r="K642" s="15"/>
     </row>
-    <row r="643" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="7"/>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
@@ -9030,7 +9111,7 @@
       <c r="J643" s="14"/>
       <c r="K643" s="15"/>
     </row>
-    <row r="644" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="7"/>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
@@ -9042,7 +9123,7 @@
       <c r="J644" s="14"/>
       <c r="K644" s="15"/>
     </row>
-    <row r="645" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="7"/>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
@@ -9054,7 +9135,7 @@
       <c r="J645" s="14"/>
       <c r="K645" s="15"/>
     </row>
-    <row r="646" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="7"/>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
@@ -9066,7 +9147,7 @@
       <c r="J646" s="14"/>
       <c r="K646" s="15"/>
     </row>
-    <row r="647" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="7"/>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
@@ -9078,7 +9159,7 @@
       <c r="J647" s="14"/>
       <c r="K647" s="15"/>
     </row>
-    <row r="648" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="7"/>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
@@ -9090,7 +9171,7 @@
       <c r="J648" s="14"/>
       <c r="K648" s="15"/>
     </row>
-    <row r="649" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="7"/>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
@@ -9102,7 +9183,7 @@
       <c r="J649" s="14"/>
       <c r="K649" s="15"/>
     </row>
-    <row r="650" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="7"/>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
@@ -9114,7 +9195,7 @@
       <c r="J650" s="14"/>
       <c r="K650" s="15"/>
     </row>
-    <row r="651" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="7"/>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
@@ -9126,7 +9207,7 @@
       <c r="J651" s="14"/>
       <c r="K651" s="15"/>
     </row>
-    <row r="652" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="7"/>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
@@ -9138,7 +9219,7 @@
       <c r="J652" s="14"/>
       <c r="K652" s="15"/>
     </row>
-    <row r="653" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="7"/>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
@@ -9150,7 +9231,7 @@
       <c r="J653" s="14"/>
       <c r="K653" s="15"/>
     </row>
-    <row r="654" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="7"/>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
@@ -9162,7 +9243,7 @@
       <c r="J654" s="14"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="7"/>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
@@ -9174,7 +9255,7 @@
       <c r="J655" s="14"/>
       <c r="K655" s="15"/>
     </row>
-    <row r="656" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="7"/>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
@@ -9186,7 +9267,7 @@
       <c r="J656" s="14"/>
       <c r="K656" s="15"/>
     </row>
-    <row r="657" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="7"/>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
@@ -9198,7 +9279,7 @@
       <c r="J657" s="14"/>
       <c r="K657" s="15"/>
     </row>
-    <row r="658" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="7"/>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
@@ -9210,7 +9291,7 @@
       <c r="J658" s="14"/>
       <c r="K658" s="15"/>
     </row>
-    <row r="659" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="7"/>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
@@ -9222,7 +9303,7 @@
       <c r="J659" s="14"/>
       <c r="K659" s="15"/>
     </row>
-    <row r="660" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="7"/>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
@@ -9234,7 +9315,7 @@
       <c r="J660" s="14"/>
       <c r="K660" s="15"/>
     </row>
-    <row r="661" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="7"/>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
@@ -9246,7 +9327,7 @@
       <c r="J661" s="14"/>
       <c r="K661" s="15"/>
     </row>
-    <row r="662" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="7"/>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
@@ -9258,7 +9339,7 @@
       <c r="J662" s="14"/>
       <c r="K662" s="15"/>
     </row>
-    <row r="663" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="7"/>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
@@ -9270,7 +9351,7 @@
       <c r="J663" s="14"/>
       <c r="K663" s="15"/>
     </row>
-    <row r="664" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="7"/>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
@@ -9282,7 +9363,7 @@
       <c r="J664" s="14"/>
       <c r="K664" s="15"/>
     </row>
-    <row r="665" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="7"/>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
@@ -9294,7 +9375,7 @@
       <c r="J665" s="14"/>
       <c r="K665" s="15"/>
     </row>
-    <row r="666" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="7"/>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
@@ -9306,7 +9387,7 @@
       <c r="J666" s="14"/>
       <c r="K666" s="15"/>
     </row>
-    <row r="667" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="7"/>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
@@ -9318,7 +9399,7 @@
       <c r="J667" s="14"/>
       <c r="K667" s="15"/>
     </row>
-    <row r="668" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="7"/>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
@@ -9330,7 +9411,7 @@
       <c r="J668" s="14"/>
       <c r="K668" s="15"/>
     </row>
-    <row r="669" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="7"/>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
@@ -9342,7 +9423,7 @@
       <c r="J669" s="14"/>
       <c r="K669" s="15"/>
     </row>
-    <row r="670" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="7"/>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
@@ -9354,7 +9435,7 @@
       <c r="J670" s="14"/>
       <c r="K670" s="15"/>
     </row>
-    <row r="671" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="7"/>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
@@ -9366,7 +9447,7 @@
       <c r="J671" s="14"/>
       <c r="K671" s="15"/>
     </row>
-    <row r="672" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="7"/>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
@@ -9378,7 +9459,7 @@
       <c r="J672" s="14"/>
       <c r="K672" s="15"/>
     </row>
-    <row r="673" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="7"/>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
@@ -9390,7 +9471,7 @@
       <c r="J673" s="14"/>
       <c r="K673" s="15"/>
     </row>
-    <row r="674" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="7"/>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
@@ -9402,7 +9483,7 @@
       <c r="J674" s="14"/>
       <c r="K674" s="15"/>
     </row>
-    <row r="675" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="7"/>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
@@ -9414,7 +9495,7 @@
       <c r="J675" s="14"/>
       <c r="K675" s="15"/>
     </row>
-    <row r="676" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="7"/>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
@@ -9426,7 +9507,7 @@
       <c r="J676" s="14"/>
       <c r="K676" s="15"/>
     </row>
-    <row r="677" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="7"/>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
@@ -9438,7 +9519,7 @@
       <c r="J677" s="14"/>
       <c r="K677" s="15"/>
     </row>
-    <row r="678" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="7"/>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
@@ -9450,7 +9531,7 @@
       <c r="J678" s="14"/>
       <c r="K678" s="15"/>
     </row>
-    <row r="679" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="7"/>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
@@ -9462,7 +9543,7 @@
       <c r="J679" s="14"/>
       <c r="K679" s="15"/>
     </row>
-    <row r="680" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="7"/>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
@@ -9474,7 +9555,7 @@
       <c r="J680" s="14"/>
       <c r="K680" s="15"/>
     </row>
-    <row r="681" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="7"/>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
@@ -9486,7 +9567,7 @@
       <c r="J681" s="14"/>
       <c r="K681" s="15"/>
     </row>
-    <row r="682" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="7"/>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
@@ -9498,7 +9579,7 @@
       <c r="J682" s="14"/>
       <c r="K682" s="15"/>
     </row>
-    <row r="683" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="7"/>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
@@ -9510,7 +9591,7 @@
       <c r="J683" s="14"/>
       <c r="K683" s="15"/>
     </row>
-    <row r="684" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="7"/>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
@@ -9522,7 +9603,7 @@
       <c r="J684" s="14"/>
       <c r="K684" s="15"/>
     </row>
-    <row r="685" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="7"/>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
@@ -9534,7 +9615,7 @@
       <c r="J685" s="14"/>
       <c r="K685" s="15"/>
     </row>
-    <row r="686" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="7"/>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
@@ -9546,7 +9627,7 @@
       <c r="J686" s="14"/>
       <c r="K686" s="15"/>
     </row>
-    <row r="687" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="7"/>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
@@ -9558,7 +9639,7 @@
       <c r="J687" s="14"/>
       <c r="K687" s="15"/>
     </row>
-    <row r="688" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="7"/>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
@@ -9570,7 +9651,7 @@
       <c r="J688" s="14"/>
       <c r="K688" s="15"/>
     </row>
-    <row r="689" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="7"/>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
@@ -9582,7 +9663,7 @@
       <c r="J689" s="14"/>
       <c r="K689" s="15"/>
     </row>
-    <row r="690" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="7"/>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
@@ -9594,7 +9675,7 @@
       <c r="J690" s="14"/>
       <c r="K690" s="15"/>
     </row>
-    <row r="691" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="7"/>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
@@ -9606,7 +9687,7 @@
       <c r="J691" s="14"/>
       <c r="K691" s="15"/>
     </row>
-    <row r="692" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="7"/>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
@@ -9618,7 +9699,7 @@
       <c r="J692" s="14"/>
       <c r="K692" s="15"/>
     </row>
-    <row r="693" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="7"/>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
@@ -9630,7 +9711,7 @@
       <c r="J693" s="14"/>
       <c r="K693" s="15"/>
     </row>
-    <row r="694" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="7"/>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
@@ -9642,7 +9723,7 @@
       <c r="J694" s="14"/>
       <c r="K694" s="15"/>
     </row>
-    <row r="695" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="7"/>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
@@ -9654,7 +9735,7 @@
       <c r="J695" s="14"/>
       <c r="K695" s="15"/>
     </row>
-    <row r="696" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="7"/>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
@@ -9666,7 +9747,7 @@
       <c r="J696" s="14"/>
       <c r="K696" s="15"/>
     </row>
-    <row r="697" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="7"/>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
@@ -9678,7 +9759,7 @@
       <c r="J697" s="14"/>
       <c r="K697" s="15"/>
     </row>
-    <row r="698" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="7"/>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
@@ -9690,7 +9771,7 @@
       <c r="J698" s="14"/>
       <c r="K698" s="15"/>
     </row>
-    <row r="699" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="7"/>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
@@ -9702,7 +9783,7 @@
       <c r="J699" s="14"/>
       <c r="K699" s="15"/>
     </row>
-    <row r="700" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="7"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -9714,7 +9795,7 @@
       <c r="J700" s="14"/>
       <c r="K700" s="15"/>
     </row>
-    <row r="701" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="7"/>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
@@ -9726,7 +9807,7 @@
       <c r="J701" s="14"/>
       <c r="K701" s="15"/>
     </row>
-    <row r="702" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="7"/>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
@@ -9738,7 +9819,7 @@
       <c r="J702" s="14"/>
       <c r="K702" s="15"/>
     </row>
-    <row r="703" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="7"/>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
@@ -9750,7 +9831,7 @@
       <c r="J703" s="14"/>
       <c r="K703" s="15"/>
     </row>
-    <row r="704" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="7"/>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
@@ -9762,7 +9843,7 @@
       <c r="J704" s="14"/>
       <c r="K704" s="15"/>
     </row>
-    <row r="705" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="7"/>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
@@ -9774,7 +9855,7 @@
       <c r="J705" s="14"/>
       <c r="K705" s="15"/>
     </row>
-    <row r="706" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="7"/>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -9786,7 +9867,7 @@
       <c r="J706" s="14"/>
       <c r="K706" s="15"/>
     </row>
-    <row r="707" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="7"/>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -9798,7 +9879,7 @@
       <c r="J707" s="14"/>
       <c r="K707" s="15"/>
     </row>
-    <row r="708" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="7"/>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -9810,7 +9891,7 @@
       <c r="J708" s="14"/>
       <c r="K708" s="15"/>
     </row>
-    <row r="709" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="7"/>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
@@ -9822,7 +9903,7 @@
       <c r="J709" s="14"/>
       <c r="K709" s="15"/>
     </row>
-    <row r="710" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="7"/>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -9834,7 +9915,7 @@
       <c r="J710" s="14"/>
       <c r="K710" s="15"/>
     </row>
-    <row r="711" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="7"/>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -9846,7 +9927,7 @@
       <c r="J711" s="14"/>
       <c r="K711" s="15"/>
     </row>
-    <row r="712" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="7"/>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -9858,7 +9939,7 @@
       <c r="J712" s="14"/>
       <c r="K712" s="15"/>
     </row>
-    <row r="713" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="7"/>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
@@ -9870,7 +9951,7 @@
       <c r="J713" s="14"/>
       <c r="K713" s="15"/>
     </row>
-    <row r="714" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="7"/>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
@@ -9882,7 +9963,7 @@
       <c r="J714" s="14"/>
       <c r="K714" s="15"/>
     </row>
-    <row r="715" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="7"/>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
@@ -9894,7 +9975,7 @@
       <c r="J715" s="14"/>
       <c r="K715" s="15"/>
     </row>
-    <row r="716" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="7"/>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
@@ -9906,7 +9987,7 @@
       <c r="J716" s="14"/>
       <c r="K716" s="15"/>
     </row>
-    <row r="717" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="7"/>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
@@ -9918,7 +9999,7 @@
       <c r="J717" s="14"/>
       <c r="K717" s="15"/>
     </row>
-    <row r="718" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="7"/>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
@@ -9930,7 +10011,7 @@
       <c r="J718" s="14"/>
       <c r="K718" s="15"/>
     </row>
-    <row r="719" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="7"/>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
@@ -9942,7 +10023,7 @@
       <c r="J719" s="14"/>
       <c r="K719" s="15"/>
     </row>
-    <row r="720" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="7"/>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
@@ -9954,7 +10035,7 @@
       <c r="J720" s="14"/>
       <c r="K720" s="15"/>
     </row>
-    <row r="721" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="7"/>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
@@ -9966,7 +10047,7 @@
       <c r="J721" s="14"/>
       <c r="K721" s="15"/>
     </row>
-    <row r="722" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="7"/>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
@@ -9978,7 +10059,7 @@
       <c r="J722" s="14"/>
       <c r="K722" s="15"/>
     </row>
-    <row r="723" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="7"/>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
@@ -9990,7 +10071,7 @@
       <c r="J723" s="14"/>
       <c r="K723" s="15"/>
     </row>
-    <row r="724" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="7"/>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
@@ -10002,7 +10083,7 @@
       <c r="J724" s="14"/>
       <c r="K724" s="15"/>
     </row>
-    <row r="725" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="7"/>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
@@ -10014,7 +10095,7 @@
       <c r="J725" s="14"/>
       <c r="K725" s="15"/>
     </row>
-    <row r="726" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="7"/>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
@@ -10026,7 +10107,7 @@
       <c r="J726" s="14"/>
       <c r="K726" s="15"/>
     </row>
-    <row r="727" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="7"/>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
@@ -10038,7 +10119,7 @@
       <c r="J727" s="14"/>
       <c r="K727" s="15"/>
     </row>
-    <row r="728" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="7"/>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
@@ -10050,7 +10131,7 @@
       <c r="J728" s="14"/>
       <c r="K728" s="15"/>
     </row>
-    <row r="729" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="7"/>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
@@ -10062,7 +10143,7 @@
       <c r="J729" s="14"/>
       <c r="K729" s="15"/>
     </row>
-    <row r="730" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="7"/>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
@@ -10074,7 +10155,7 @@
       <c r="J730" s="14"/>
       <c r="K730" s="15"/>
     </row>
-    <row r="731" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="7"/>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
@@ -10086,7 +10167,7 @@
       <c r="J731" s="14"/>
       <c r="K731" s="15"/>
     </row>
-    <row r="732" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="7"/>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
@@ -10098,7 +10179,7 @@
       <c r="J732" s="14"/>
       <c r="K732" s="15"/>
     </row>
-    <row r="733" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="7"/>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
@@ -10110,7 +10191,7 @@
       <c r="J733" s="14"/>
       <c r="K733" s="15"/>
     </row>
-    <row r="734" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="7"/>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
@@ -10122,7 +10203,7 @@
       <c r="J734" s="14"/>
       <c r="K734" s="15"/>
     </row>
-    <row r="735" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="7"/>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
@@ -10134,7 +10215,7 @@
       <c r="J735" s="14"/>
       <c r="K735" s="15"/>
     </row>
-    <row r="736" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="7"/>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
@@ -10146,7 +10227,7 @@
       <c r="J736" s="14"/>
       <c r="K736" s="15"/>
     </row>
-    <row r="737" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="7"/>
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
@@ -10158,7 +10239,7 @@
       <c r="J737" s="14"/>
       <c r="K737" s="15"/>
     </row>
-    <row r="738" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="7"/>
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
@@ -10170,7 +10251,7 @@
       <c r="J738" s="14"/>
       <c r="K738" s="15"/>
     </row>
-    <row r="739" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="7"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
@@ -10182,7 +10263,7 @@
       <c r="J739" s="14"/>
       <c r="K739" s="15"/>
     </row>
-    <row r="740" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="7"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
@@ -10194,7 +10275,7 @@
       <c r="J740" s="14"/>
       <c r="K740" s="15"/>
     </row>
-    <row r="741" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="7"/>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
@@ -10206,7 +10287,7 @@
       <c r="J741" s="14"/>
       <c r="K741" s="15"/>
     </row>
-    <row r="742" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="7"/>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
@@ -10218,7 +10299,7 @@
       <c r="J742" s="14"/>
       <c r="K742" s="15"/>
     </row>
-    <row r="743" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="7"/>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
@@ -10241,49 +10322,59 @@
     <mergeCell ref="A6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="K13 K15 K17 K19 K21 K23 K25 K27 K29 K31 K33 K35 K37 K39 K41 K43 K45 K47 K49 K51 K53 K55 K57 K59 K61 K63 K65 K67 K69 K71 K73 K75 K77 K79 K81 K83 K85 K87 K89 K91 K93 K95 K97 K99 K101 K103 K105 K107 K109 K111 K113 K115 K117 K119 K121 K123 K125 K127 K129 K131 K133 K135 K137 K139 K141 K143 K145 K147 K149 K151 K153 K155 K157 K159 K161 K163 K165 K167 K169 K171 K173 K175 K177 K179 K181 K183 K185 K187 K189 K191 K193 K195 K197 K199 K201 K203 K205 K207 K209 K211 K213 K215 K217 K219 K221 K223 K225 K227 K229 K231 K233 K235 K237 K239 K241 K243 K245 K247 K249 K251 K253 K255 K257 K259 K261 K263 K265 K267 K269 K271 K273 K275 K277 K279 K281 K283 K285 K287 K289 K291 K293 K295 K297 K299 K301 K303 K305 K307 K309 K311 K313 K315 K317 K319 K321 K323 K325 K327 K329 K331 K333 K335 K337 K339 K341 K343 K345 K347 K349 K351 K353 K355 K357 K359 K361 K363 K365 K367 K369 K371 K373 K375 K377 K379 K381 K383 K385 K387 K389 K391 K393 K395 K397 K399 K401 K403 K405 K407 K409 K411 K413 K415 K417 K419 K421 K423 K425 K427 K429 K431 K433 K435 K437 K439 K441 K443 K445 K447 K449 K451 K453 K455 K457 K459 K461 K463 K465 K467 K469 K471 K473 K475 K477 K479 K481 K483 K485 K487 K489 K491 K493 K495 K497 K499 K501 K503 K505 K507 K509 K511 K513 K515 K517 K519 K521 K523 K525 K527 K529 K531 K533 K535 K537 K539 K541 K543 K545 K547 K549 K551 K553 K555 K557 K559 K561 K563 K565 K567 K569 K571 K573 K575 K577 K579 K581 K583 K585 K587 K589 K591 K593 K595 K597 K599 K601 K603 K605 K607 K609 K611 K613 K615 K617 K619 K621 K623 K625 K627 K629 K631 K633 K635 K637 K639 K641 K643 K645 K647 K649 K651 K653 K655 K657 K659 K661 K663 K665 K667 K669 K671 K673 K675 K677 K679 K681 K683 K685 K687 K689 K691 K693 K695 K697 K699 K701 K703 K705 K707 K709 K711 K713 K715 K717 K719 K721 K723 K725 K727 K729 K731 K733 K735 K737 K739 K741 K743 K10:K11">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 K10:K743">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="i.O">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="i.O">
       <formula>NOT(ISERROR(SEARCH("i.O",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="i.O">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="i.O">
       <formula>NOT(ISERROR(SEARCH("i.O",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Fehlgeschlagen">
+      <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fehlgeschlagen">
+      <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fehlgeschlagen">
-      <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10305,24 +10396,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="20.7109375" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.44140625" style="11"/>
+    <col min="2" max="2" width="20.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -10330,12 +10421,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FAYEuJ4oc+/6q02cT094X6dT0uwFEAlpgWqjvBF8GyH2DNuN7BJAKOVgESNEDjVfaBITwifHIcdmTWiL0tGYuQ==" saltValue="t0qxRatJ8nL3R5idYDXJww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="i.O">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="i.O">
       <formula>NOT(ISERROR(SEARCH("i.O",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fehlgeschlagen">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Fehlgeschlagen">
       <formula>NOT(ISERROR(SEARCH("Fehlgeschlagen",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
